--- a/data_excel/579.xlsx
+++ b/data_excel/579.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>桌上</t>
   </si>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -206,15 +210,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -520,7 +540,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,12 +675,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>

--- a/data_excel/579.xlsx
+++ b/data_excel/579.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>桌上</t>
   </si>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -686,12 +690,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
